--- a/src/test/java/tests/requestResponseValidation/model/TestScriptDisbursement.xlsx
+++ b/src/test/java/tests/requestResponseValidation/model/TestScriptDisbursement.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSP\Automation-Testing\Disbursement-Testing\api-client-testing\src\test\java\tests\request\model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSP\Automation-Testing\Disbursement-Testing\api-client-testing\src\test\java\tests\requestResponseValidation\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5CFF08-934A-4FBF-BFC9-200CC84C379B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22691D63-64B4-4EC6-8BB1-70A7F741AA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -806,14 +806,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1117,17 +1117,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
     </row>
     <row r="2" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D2" s="27"/>
@@ -25326,7 +25326,7 @@
   <dimension ref="A1:X1004"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -25344,10 +25344,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="76"/>
+      <c r="E1" s="77"/>
     </row>
     <row r="2" spans="1:24" ht="20.25" x14ac:dyDescent="0.3">
       <c r="D2" s="7"/>
@@ -25439,7 +25439,7 @@
       <c r="D9" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="77" t="s">
+      <c r="E9" s="75" t="s">
         <v>61</v>
       </c>
       <c r="F9" s="9" t="s">
